--- a/doc/sprint4_burndown.xlsx
+++ b/doc/sprint4_burndown.xlsx
@@ -123,8 +123,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 4 Burndown Chart</a:t>
+              <a:t>Sprint</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4 Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -181,7 +186,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -192,11 +197,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -204,50 +209,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>42655.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42656.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42657.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>42658.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42659.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>42660.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>42661.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>42662.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>42663.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42664.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42665.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>43396.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>42666.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42667.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42668.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42669.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -255,10 +263,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -266,7 +274,7 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.0</c:v>
@@ -299,6 +307,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -323,7 +334,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -334,11 +345,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -346,50 +357,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>42655.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42656.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42657.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>42658.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42659.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>42660.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>42661.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>42662.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>42663.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42664.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42665.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>43396.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>42666.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42667.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42668.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42669.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,10 +411,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -411,37 +425,16 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,15 +449,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-864734080"/>
-        <c:axId val="-865509808"/>
+        <c:axId val="-7813184"/>
+        <c:axId val="-8219088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-864734080"/>
+        <c:axId val="-7813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42669.0"/>
-          <c:min val="42656.0"/>
+          <c:min val="42655.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -575,14 +568,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-865509808"/>
+        <c:crossAx val="-8219088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-865509808"/>
+        <c:axId val="-8219088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,8 +616,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Story Points</a:t>
+                  <a:t>Story</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -695,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-864734080"/>
+        <c:crossAx val="-7813184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1633,7 +1631,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1649,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>42656</v>
+        <v>42655</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -1662,7 +1660,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42657</v>
+        <v>42656</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -1673,10 +1671,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42658</v>
+        <v>42657</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1684,127 +1682,111 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42659</v>
+        <v>42658</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>42660</v>
+        <v>42659</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>42661</v>
+        <v>42660</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>42662</v>
+        <v>42661</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>42663</v>
+        <v>42662</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>42664</v>
+        <v>42663</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>42665</v>
+        <v>42664</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43396</v>
+        <v>42665</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42667</v>
+        <v>42666</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42668</v>
+        <v>42667</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>42668</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>42669</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>

--- a/doc/sprint4_burndown.xlsx
+++ b/doc/sprint4_burndown.xlsx
@@ -425,7 +425,7 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.0</c:v>
@@ -434,7 +434,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,11 +449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-7813184"/>
-        <c:axId val="-8219088"/>
+        <c:axId val="1618060496"/>
+        <c:axId val="1618068752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-7813184"/>
+        <c:axId val="1618060496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42669.0"/>
@@ -568,14 +568,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-8219088"/>
+        <c:crossAx val="1618068752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-8219088"/>
+        <c:axId val="1618068752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-7813184"/>
+        <c:crossAx val="1618060496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/doc/sprint4_burndown.xlsx
+++ b/doc/sprint4_burndown.xlsx
@@ -436,6 +436,30 @@
                 <c:pt idx="6">
                   <c:v>10.0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -449,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1618060496"/>
-        <c:axId val="1618068752"/>
+        <c:axId val="-1466489376"/>
+        <c:axId val="-1485543696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1618060496"/>
+        <c:axId val="-1466489376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42669.0"/>
@@ -568,14 +592,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1618068752"/>
+        <c:crossAx val="-1485543696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1618068752"/>
+        <c:axId val="-1485543696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1618060496"/>
+        <c:crossAx val="-1466489376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1631,7 +1655,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,6 +1755,9 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1739,6 +1766,9 @@
       <c r="B10">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1747,6 +1777,9 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1755,6 +1788,9 @@
       <c r="B12">
         <v>8</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1763,6 +1799,9 @@
       <c r="B13">
         <v>6</v>
       </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1771,6 +1810,9 @@
       <c r="B14">
         <v>6</v>
       </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1779,12 +1821,18 @@
       <c r="B15">
         <v>6</v>
       </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42669</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>

--- a/doc/sprint4_burndown.xlsx
+++ b/doc/sprint4_burndown.xlsx
@@ -473,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1466489376"/>
-        <c:axId val="-1485543696"/>
+        <c:axId val="602682704"/>
+        <c:axId val="637932688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1466489376"/>
+        <c:axId val="602682704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42669.0"/>
@@ -592,14 +592,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1485543696"/>
+        <c:crossAx val="637932688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1485543696"/>
+        <c:axId val="637932688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1466489376"/>
+        <c:crossAx val="602682704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc/sprint4_burndown.xlsx
+++ b/doc/sprint4_burndown.xlsx
@@ -167,7 +167,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -193,19 +193,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -315,7 +303,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -341,19 +329,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -463,7 +439,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -473,11 +449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="602682704"/>
-        <c:axId val="637932688"/>
+        <c:axId val="-1107556640"/>
+        <c:axId val="-1080877744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="602682704"/>
+        <c:axId val="-1107556640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42669.0"/>
@@ -592,14 +568,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637932688"/>
+        <c:crossAx val="-1080877744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637932688"/>
+        <c:axId val="-1080877744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602682704"/>
+        <c:crossAx val="-1107556640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1655,7 +1631,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
